--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2301728.257647657</v>
+        <v>2299476.177936451</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521348.128946902</v>
+        <v>9521348.128946904</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900299</v>
       </c>
       <c r="F2" t="n">
-        <v>115.9257818122629</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>76.76512966453332</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -868,22 +868,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>49.68400593664609</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>75.05463882611659</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798671</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89839816356351</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>220.4318085004689</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661123</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505775</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>177.3976805332816</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.48749137895456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>70.58974991479295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763421</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>95.81917536083697</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>72.77126028643522</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>156.0551722706133</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>73.93222849083601</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3214422457866</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>51.89407438975442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>13.74238375877684</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>204.7007259231375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.437227901961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1682.315766249262</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D2" t="n">
-        <v>1324.050067642511</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="E2" t="n">
-        <v>938.261815044267</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>725.9304417640992</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>556.9942588361923</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>556.9942588361923</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>409.0811652537992</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.361036635886</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.371485737869</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>907.5789065943389</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033357</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965852</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>195.353827798341</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801002</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521933</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
         <v>382.1280466398576</v>
@@ -4714,13 +4714,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.280305378586</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X7" t="n">
-        <v>1103.62191295387</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.8293338103399</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324635</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598635</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.4305777370295</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
         <v>331.5406302391191</v>
@@ -4957,22 +4957,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1177.485763502247</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>888.0685934652865</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>660.0790425672692</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.0790425672692</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>448.1846595309963</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L12" t="n">
-        <v>943.510265746755</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.455065717131</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892241</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768884</v>
+        <v>513.853600740073</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576799</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690901</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473707</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,52 +5747,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768874</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892232</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>416.6057892068301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>249.40968992171</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,22 +6546,22 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473698</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>746.1673476194629</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>746.1673476194629</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6865,43 +6865,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1492342949674</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>416.6057892068301</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1481.617443831335</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1192.200273794374</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>99.1279816392578</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>75.84421273177622</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064658914</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>49.60187266209428</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>61.35027805667499</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.8997516911013</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>33.11252040078261</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>115.3527467088734</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>131.6786642641544</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>47.43691740069053</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675042</v>
@@ -26332,19 +26332,19 @@
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
@@ -26353,7 +26353,7 @@
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.8081118428</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739678</v>
+        <v>-913691.2017739676</v>
       </c>
       <c r="C6" t="n">
-        <v>415053.543953625</v>
+        <v>415053.5439536251</v>
       </c>
       <c r="D6" t="n">
-        <v>415053.5439536248</v>
+        <v>415053.5439536253</v>
       </c>
       <c r="E6" t="n">
-        <v>165218.1500243996</v>
+        <v>165183.4120989635</v>
       </c>
       <c r="F6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="G6" t="n">
-        <v>490630.6118317545</v>
+        <v>490595.8739063188</v>
       </c>
       <c r="H6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="I6" t="n">
-        <v>490630.6118317542</v>
+        <v>490595.8739063188</v>
       </c>
       <c r="J6" t="n">
-        <v>273099.4094344768</v>
+        <v>273064.6715090412</v>
       </c>
       <c r="K6" t="n">
-        <v>490630.6118317542</v>
+        <v>490595.8739063188</v>
       </c>
       <c r="L6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063188</v>
       </c>
       <c r="M6" t="n">
-        <v>405575.5838962426</v>
+        <v>405540.8459708068</v>
       </c>
       <c r="N6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="O6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="P6" t="n">
-        <v>490630.6118317543</v>
+        <v>490595.8739063184</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822319</v>
       </c>
       <c r="F2" t="n">
-        <v>290.9502639294486</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>68.65591835839793</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236.8389923999449</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.8214069155948</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080669</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2392451602645</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>5.277846888568206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061494</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934113</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>74.73996279054643</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>342.8454457931495</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3057151140782</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>272.7569329364655</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663297</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>205.0040068187905</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7094706696337</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>134.2025531565913</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998995</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>169.4270660337085</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
